--- a/Método de identificación/HOLD OUT/holdOut_RE_binaria_balanceo2b.xlsx
+++ b/Método de identificación/HOLD OUT/holdOut_RE_binaria_balanceo2b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\HOLD OUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -312,7 +312,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -380,13 +380,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,1119 +739,1119 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>0.95631487889273359</v>
+        <v>0.81098615916955019</v>
       </c>
       <c r="D2" s="1">
-        <v>0.95644674428633025</v>
+        <v>0.80875273522975932</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>0.95631487889273359</v>
+        <v>0.81098615916955019</v>
       </c>
       <c r="G2" s="1">
-        <v>0.95603448275862069</v>
+        <v>0.82060390763765545</v>
       </c>
       <c r="H2" s="1">
-        <v>0.95685936151855044</v>
+        <v>0.79723899913718721</v>
       </c>
       <c r="I2" s="1">
-        <v>0.95576756287944498</v>
+        <v>0.82480485689505634</v>
       </c>
       <c r="J2" s="1">
-        <v>0.95631346219899771</v>
+        <v>0.81102192801612183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>0.95458477508650519</v>
+        <v>0.92517301038062283</v>
       </c>
       <c r="D3" s="1">
-        <v>0.9546827794561934</v>
+        <v>0.92533448424687093</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.95458477508650519</v>
+        <v>0.92517301038062283</v>
       </c>
       <c r="G3" s="1">
-        <v>0.95509499136442144</v>
+        <v>0.92573402417962003</v>
       </c>
       <c r="H3" s="1">
-        <v>0.95427092320966356</v>
+        <v>0.92493528904227784</v>
       </c>
       <c r="I3" s="1">
-        <v>0.95490026019080654</v>
+        <v>0.92541196877710319</v>
       </c>
       <c r="J3" s="1">
-        <v>0.95458559170023505</v>
+        <v>0.92517362890969046</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.95371972318339104</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.95377969762419013</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.95371972318339104</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.95501730103806226</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.95254529767040552</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.95490026019080654</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.95372277893060597</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.82309688581314877</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.82147533828022712</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.82309688581314877</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.83127208480565373</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.81190681622088012</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.83434518647007805</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.82312600134547909</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>0.95285467128027679</v>
+        <v>0.82785467128027679</v>
       </c>
       <c r="D5" s="1">
-        <v>0.95299698145752487</v>
+        <v>0.84428794992175271</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
-        <v>0.95285467128027679</v>
+        <v>0.82785467128027679</v>
       </c>
       <c r="G5" s="1">
-        <v>0.95258620689655171</v>
+        <v>0.77236936292054403</v>
       </c>
       <c r="H5" s="1">
-        <v>0.95340811044003448</v>
+        <v>0.9309749784296808</v>
       </c>
       <c r="I5" s="1">
-        <v>0.95229835212489156</v>
+        <v>0.72419774501300949</v>
       </c>
       <c r="J5" s="1">
-        <v>0.95285323128246302</v>
+        <v>0.82758636172134514</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>0.95285467128027679</v>
+        <v>0.76384083044982698</v>
       </c>
       <c r="D6" s="1">
-        <v>0.95275249241439097</v>
+        <v>0.76322636600173466</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
-        <v>0.95285467128027679</v>
+        <v>0.76384083044982698</v>
       </c>
       <c r="G6" s="1">
-        <v>0.95731707317073167</v>
+        <v>0.76721883173496075</v>
       </c>
       <c r="H6" s="1">
-        <v>0.9482312338222606</v>
+        <v>0.75927523727351165</v>
       </c>
       <c r="I6" s="1">
-        <v>0.95750216825672163</v>
+        <v>0.76843018213356462</v>
       </c>
       <c r="J6" s="1">
-        <v>0.952866701039491</v>
+        <v>0.76385270970353814</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>0.95069204152249132</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="D7" s="1">
-        <v>0.95034843205574915</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
-        <v>0.95069204152249132</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="G7" s="1">
-        <v>0.95954265611257694</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.94132873166522868</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.96010407632263661</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.95071640399393276</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.93425605536332179</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.93448275862068964</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.93425605536332179</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.93367786391042207</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.93528904227782572</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.93321769297484825</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.93425336762633704</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.93166089965397925</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.93177892918825567</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.93166089965397925</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.9309749784296808</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.93235039028620992</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.93166268435794541</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.93382352941176472</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.93402328589909445</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.93382352941176472</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.93362068965517242</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.93321769297484825</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.9338219612415225</v>
+      <c r="C9" s="1">
+        <v>0.82396193771626303</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.82250327082424757</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.82396193771626303</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.83156966490299822</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.81363244176013805</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.83434518647007805</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.82398881411510805</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0.93209342560553632</v>
+        <v>0.84385813148788924</v>
       </c>
       <c r="D10" s="1">
-        <v>0.93218142548596128</v>
+        <v>0.85611797528895972</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1">
-        <v>0.93209342560553632</v>
+        <v>0.84385813148788924</v>
       </c>
       <c r="G10" s="1">
-        <v>0.93339100346020765</v>
+        <v>0.79555555555555557</v>
       </c>
       <c r="H10" s="1">
-        <v>0.9309749784296808</v>
+        <v>0.92666091458153577</v>
       </c>
       <c r="I10" s="1">
-        <v>0.93321769297484825</v>
+        <v>0.76062445793581956</v>
       </c>
       <c r="J10" s="1">
-        <v>0.93209633570226447</v>
+        <v>0.84364268625867778</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.93166089965397925</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.93177892918825567</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.93166089965397925</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.93258426966292129</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.9309749784296808</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.93235039028620992</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.93166268435794541</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.74783737024221453</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.75032119914346895</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.74783737024221453</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.74489795918367352</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.75582398619499569</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.7398091934084996</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.7478165898017477</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.49870242214532873</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.49870242214532873</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.92517301038062283</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.92533448424687093</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.92517301038062283</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.92573402417962003</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.92493528904227784</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.92541196877710319</v>
-      </c>
       <c r="J12" s="1">
-        <v>0.92517362890969046</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>0.87456747404844293</v>
+        <v>0.93209342560553632</v>
       </c>
       <c r="D13" s="1">
-        <v>0.86511627906976751</v>
+        <v>0.93218142548596128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
-        <v>0.87456747404844293</v>
+        <v>0.93209342560553632</v>
       </c>
       <c r="G13" s="1">
-        <v>0.93844601412714435</v>
+        <v>0.93339100346020765</v>
       </c>
       <c r="H13" s="1">
-        <v>0.80241587575496121</v>
+        <v>0.9309749784296808</v>
       </c>
       <c r="I13" s="1">
-        <v>0.94709453599306159</v>
+        <v>0.93321769297484825</v>
       </c>
       <c r="J13" s="1">
-        <v>0.87475520587401145</v>
+        <v>0.93209633570226447</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>0.85077854671280273</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="D14" s="1">
-        <v>0.86161251504211789</v>
+        <v>0.82198952879581166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1">
-        <v>0.85077854671280273</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G14" s="1">
-        <v>0.80509745127436283</v>
+        <v>0.83142100617828774</v>
       </c>
       <c r="H14" s="1">
-        <v>0.92666091458153577</v>
+        <v>0.81276962899050909</v>
       </c>
       <c r="I14" s="1">
-        <v>0.77450130095403291</v>
+        <v>0.83434518647007805</v>
       </c>
       <c r="J14" s="1">
-        <v>0.85058110776778428</v>
+        <v>0.82355740773029362</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>0.84861591695501726</v>
+        <v>0.84645328719723179</v>
       </c>
       <c r="D15" s="1">
-        <v>0.85977564102564108</v>
+        <v>0.85794317727090841</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1">
-        <v>0.84861591695501726</v>
+        <v>0.84645328719723179</v>
       </c>
       <c r="G15" s="1">
-        <v>0.80254300673148837</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="1">
-        <v>0.9257981018119068</v>
+        <v>0.92493528904227784</v>
       </c>
       <c r="I15" s="1">
-        <v>0.7710320901994796</v>
+        <v>0.76756287944492629</v>
       </c>
       <c r="J15" s="1">
-        <v>0.84841509600569309</v>
+        <v>0.84624908424360201</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>0.84645328719723179</v>
+        <v>0.74567474048442905</v>
       </c>
       <c r="D16" s="1">
-        <v>0.85794317727090841</v>
+        <v>0.74850299401197617</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
-        <v>0.84645328719723179</v>
+        <v>0.74567474048442905</v>
       </c>
       <c r="G16" s="1">
-        <v>0.8</v>
+        <v>0.74215436810856661</v>
       </c>
       <c r="H16" s="1">
-        <v>0.92493528904227784</v>
+        <v>0.75496117342536673</v>
       </c>
       <c r="I16" s="1">
-        <v>0.76756287944492629</v>
+        <v>0.73633998265394618</v>
       </c>
       <c r="J16" s="1">
-        <v>0.84624908424360201</v>
+        <v>0.74565057803965651</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>0.84385813148788924</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="D17" s="1">
-        <v>0.85611797528895972</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
-        <v>0.84385813148788924</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="G17" s="1">
-        <v>0.79555555555555557</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0.92666091458153577</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0.76062445793581956</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0.84364268625867778</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.82785467128027679</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.84428794992175271</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.82785467128027679</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.77236936292054403</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.9309749784296808</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.72419774501300949</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.82758636172134514</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.93382352941176472</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.93402328589909445</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.93382352941176472</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.93362068965517242</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.93321769297484825</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.9338219612415225</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>0.82396193771626303</v>
+        <v>0.82309688581314877</v>
       </c>
       <c r="D19" s="1">
-        <v>0.82250327082424757</v>
+        <v>0.82163105102485823</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1">
-        <v>0.82396193771626303</v>
+        <v>0.82309688581314877</v>
       </c>
       <c r="G19" s="1">
-        <v>0.83156966490299822</v>
+        <v>0.8306878306878307</v>
       </c>
       <c r="H19" s="1">
-        <v>0.81363244176013805</v>
+        <v>0.81276962899050909</v>
       </c>
       <c r="I19" s="1">
-        <v>0.83434518647007805</v>
+        <v>0.83347788378143972</v>
       </c>
       <c r="J19" s="1">
-        <v>0.82398881411510805</v>
+        <v>0.82312375638597435</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>0.82352941176470584</v>
+        <v>0.84861591695501726</v>
       </c>
       <c r="D20" s="1">
-        <v>0.82198952879581166</v>
+        <v>0.85977564102564108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
-        <v>0.82352941176470584</v>
+        <v>0.84861591695501726</v>
       </c>
       <c r="G20" s="1">
-        <v>0.83142100617828774</v>
+        <v>0.80254300673148837</v>
       </c>
       <c r="H20" s="1">
-        <v>0.81276962899050909</v>
+        <v>0.9257981018119068</v>
       </c>
       <c r="I20" s="1">
-        <v>0.83434518647007805</v>
+        <v>0.7710320901994796</v>
       </c>
       <c r="J20" s="1">
-        <v>0.82355740773029362</v>
+        <v>0.84841509600569309</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.74351211072664358</v>
       </c>
       <c r="D21" s="1">
-        <v>0.82163105102485823</v>
+        <v>0.7471215351812367</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.74351211072664358</v>
       </c>
       <c r="G21" s="1">
-        <v>0.8306878306878307</v>
+        <v>0.73861720067453629</v>
       </c>
       <c r="H21" s="1">
-        <v>0.81276962899050909</v>
+        <v>0.75582398619499569</v>
       </c>
       <c r="I21" s="1">
-        <v>0.83347788378143972</v>
+        <v>0.73113616652211622</v>
       </c>
       <c r="J21" s="1">
-        <v>0.82312375638597435</v>
+        <v>0.74348007635855595</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="D22" s="1">
-        <v>0.82163105102485823</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="G22" s="1">
-        <v>0.8306878306878307</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0.81276962899050909</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0.83347788378143972</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>0.82312375638597435</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.93425605536332179</v>
       </c>
       <c r="D23" s="1">
-        <v>0.82147533828022712</v>
+        <v>0.93448275862068964</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1">
-        <v>0.82309688581314877</v>
+        <v>0.93425605536332179</v>
       </c>
       <c r="G23" s="1">
-        <v>0.83127208480565373</v>
+        <v>0.93367786391042207</v>
       </c>
       <c r="H23" s="1">
-        <v>0.81190681622088012</v>
+        <v>0.93528904227782572</v>
       </c>
       <c r="I23" s="1">
-        <v>0.83434518647007805</v>
+        <v>0.93321769297484825</v>
       </c>
       <c r="J23" s="1">
-        <v>0.82312600134547909</v>
+        <v>0.93425336762633704</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
-        <v>0.81098615916955019</v>
+        <v>0.82309688581314877</v>
       </c>
       <c r="D24" s="1">
-        <v>0.80875273522975932</v>
+        <v>0.82163105102485823</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
-        <v>0.81098615916955019</v>
+        <v>0.82309688581314877</v>
       </c>
       <c r="G24" s="1">
-        <v>0.82060390763765545</v>
+        <v>0.8306878306878307</v>
       </c>
       <c r="H24" s="1">
-        <v>0.79723899913718721</v>
+        <v>0.81276962899050909</v>
       </c>
       <c r="I24" s="1">
-        <v>0.82480485689505634</v>
+        <v>0.83347788378143972</v>
       </c>
       <c r="J24" s="1">
-        <v>0.81102192801612183</v>
+        <v>0.82312375638597435</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>0.76384083044982698</v>
+        <v>0.85077854671280273</v>
       </c>
       <c r="D25" s="1">
-        <v>0.76322636600173466</v>
+        <v>0.86161251504211789</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1">
-        <v>0.76384083044982698</v>
+        <v>0.85077854671280273</v>
       </c>
       <c r="G25" s="1">
-        <v>0.76721883173496075</v>
+        <v>0.80509745127436283</v>
       </c>
       <c r="H25" s="1">
-        <v>0.75927523727351165</v>
+        <v>0.92666091458153577</v>
       </c>
       <c r="I25" s="1">
-        <v>0.76843018213356462</v>
+        <v>0.77450130095403291</v>
       </c>
       <c r="J25" s="1">
-        <v>0.76385270970353814</v>
+        <v>0.85058110776778428</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>0.74783737024221453</v>
+        <v>0.74221453287197237</v>
       </c>
       <c r="D26" s="1">
-        <v>0.75032119914346895</v>
+        <v>0.74595055413469746</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
-        <v>0.74783737024221453</v>
+        <v>0.74221453287197237</v>
       </c>
       <c r="G26" s="1">
-        <v>0.74489795918367352</v>
+        <v>0.73715248525695032</v>
       </c>
       <c r="H26" s="1">
-        <v>0.75582398619499569</v>
+        <v>0.75496117342536673</v>
       </c>
       <c r="I26" s="1">
-        <v>0.7398091934084996</v>
+        <v>0.72940156114483956</v>
       </c>
       <c r="J26" s="1">
-        <v>0.7478165898017477</v>
+        <v>0.7421813672851032</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C27" s="1">
-        <v>0.74567474048442905</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="D27" s="1">
-        <v>0.74850299401197617</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1">
-        <v>0.74567474048442905</v>
+        <v>0.49870242214532873</v>
       </c>
       <c r="G27" s="1">
-        <v>0.74215436810856661</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0.75496117342536673</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0.73633998265394618</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>0.74565057803965651</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>0.74351211072664358</v>
+        <v>0.95285467128027679</v>
       </c>
       <c r="D28" s="1">
-        <v>0.7471215351812367</v>
+        <v>0.95275249241439097</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
-        <v>0.74351211072664358</v>
+        <v>0.95285467128027679</v>
       </c>
       <c r="G28" s="1">
-        <v>0.73861720067453629</v>
+        <v>0.95731707317073167</v>
       </c>
       <c r="H28" s="1">
-        <v>0.75582398619499569</v>
+        <v>0.9482312338222606</v>
       </c>
       <c r="I28" s="1">
-        <v>0.73113616652211622</v>
+        <v>0.95750216825672163</v>
       </c>
       <c r="J28" s="1">
-        <v>0.74348007635855595</v>
+        <v>0.952866701039491</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.74221453287197237</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.74595055413469746</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.74221453287197237</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.73715248525695032</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.75496117342536673</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.72940156114483956</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.7421813672851032</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.95371972318339104</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.95377969762419013</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.95371972318339104</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.95501730103806226</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.95254529767040552</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.95490026019080654</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.95372277893060597</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>0.50129757785467133</v>
+        <v>0.95069204152249132</v>
       </c>
       <c r="D30" s="1">
-        <v>0.66781907231345439</v>
+        <v>0.95034843205574915</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F30" s="1">
-        <v>0.50129757785467133</v>
+        <v>0.95069204152249132</v>
       </c>
       <c r="G30" s="1">
-        <v>0.50129757785467133</v>
+        <v>0.95954265611257694</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>0.94132873166522868</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>0.96010407632263661</v>
       </c>
       <c r="J30" s="1">
-        <v>0.5</v>
+        <v>0.95071640399393276</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>0.606401384083045</v>
+        <v>0.95285467128027679</v>
       </c>
       <c r="D31" s="1">
-        <v>0.35552407932011337</v>
+        <v>0.95299698145752487</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1">
-        <v>0.606401384083045</v>
+        <v>0.95285467128027679</v>
       </c>
       <c r="G31" s="1">
-        <v>0.9920948616600791</v>
+        <v>0.95258620689655171</v>
       </c>
       <c r="H31" s="1">
-        <v>0.2165660051768766</v>
+        <v>0.95340811044003448</v>
       </c>
       <c r="I31" s="1">
-        <v>0.99826539462272335</v>
+        <v>0.95229835212489156</v>
       </c>
       <c r="J31" s="1">
-        <v>0.60741569989979993</v>
+        <v>0.95285323128246302</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>0.2711937716262976</v>
+        <v>0.95631487889273359</v>
       </c>
       <c r="D32" s="1">
-        <v>0.31083844580777098</v>
+        <v>0.95644674428633025</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2711937716262976</v>
+        <v>0.95631487889273359</v>
       </c>
       <c r="G32" s="1">
-        <v>0.29548989113530327</v>
+        <v>0.95603448275862069</v>
       </c>
       <c r="H32" s="1">
-        <v>0.32786885245901642</v>
+        <v>0.95685936151855044</v>
       </c>
       <c r="I32" s="1">
-        <v>0.21422376409366869</v>
+        <v>0.95576756287944498</v>
       </c>
       <c r="J32" s="1">
-        <v>0.27104630827634257</v>
+        <v>0.95631346219899771</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
-        <v>0.5523356401384083</v>
+        <v>0.95458477508650519</v>
       </c>
       <c r="D33" s="1">
-        <v>0.19329696024941539</v>
+        <v>0.9546827794561934</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1">
-        <v>0.5523356401384083</v>
+        <v>0.95458477508650519</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0.95509499136442144</v>
       </c>
       <c r="H33" s="1">
-        <v>0.1069887834339948</v>
+        <v>0.95427092320966356</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0.95490026019080654</v>
       </c>
       <c r="J33" s="1">
-        <v>0.55349439171699744</v>
+        <v>0.95458559170023505</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>0.53676470588235292</v>
+        <v>0.87456747404844293</v>
       </c>
       <c r="D34" s="1">
-        <v>0.14113873295910179</v>
+        <v>0.86511627906976751</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1">
-        <v>0.53676470588235292</v>
+        <v>0.87456747404844293</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0.93844601412714435</v>
       </c>
       <c r="H34" s="1">
-        <v>7.5927523727351162E-2</v>
+        <v>0.80241587575496121</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0.94709453599306159</v>
       </c>
       <c r="J34" s="1">
-        <v>0.53796376186367556</v>
+        <v>0.87475520587401145</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>0.51427335640138405</v>
+        <v>0.606401384083045</v>
       </c>
       <c r="D35" s="1">
-        <v>6.0251046025104588E-2</v>
+        <v>0.35552407932011337</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1">
-        <v>0.51427335640138405</v>
+        <v>0.606401384083045</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0.9920948616600791</v>
       </c>
       <c r="H35" s="1">
-        <v>3.1061259706643661E-2</v>
+        <v>0.2165660051768766</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0.99826539462272335</v>
       </c>
       <c r="J35" s="1">
-        <v>0.51553062985332188</v>
+        <v>0.60741569989979993</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.50129757785467133</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.66781907231345439</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.50129757785467133</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>0.50129757785467133</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0.5</v>
@@ -1859,42 +1859,42 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.53676470588235292</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.14113873295910179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.53676470588235292</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>7.5927523727351162E-2</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>0.5</v>
+        <v>0.53796376186367556</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>0.49870242214532873</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
         <v>0.49870242214532873</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>0.49870242214532873</v>
@@ -1987,42 +1987,42 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.51427335640138405</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>6.0251046025104588E-2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.51427335640138405</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>3.1061259706643661E-2</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
       </c>
       <c r="J41" s="1">
-        <v>0.5</v>
+        <v>0.51553062985332188</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <v>0.49870242214532873</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <v>0.49870242214532873</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>0.49870242214532873</v>
@@ -2115,71 +2115,71 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.2711937716262976</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>0.31083844580777098</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.2711937716262976</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>0.29548989113530327</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>0.32786885245901642</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>0.21422376409366869</v>
       </c>
       <c r="J45" s="1">
-        <v>0.5</v>
+        <v>0.27104630827634257</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.5523356401384083</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.19329696024941539</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F46" s="1">
-        <v>0.49870242214532873</v>
+        <v>0.5523356401384083</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>0.1069887834339948</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>0.5</v>
+        <v>0.55349439171699744</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J46">
-    <sortCondition descending="1" ref="D1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
